--- a/5_Analysis/5_3_Supplementary_materials/文章数计算.xlsx
+++ b/5_Analysis/5_3_Supplementary_materials/文章数计算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y't\Desktop\MH_CPL\5_Analysis\5_1_Depression\5_1_3_Supplementary materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\桌面\MH_CPL\5_Analysis\5_1_Depression\5_1_3_Supplementary materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFEC427-5D9C-4624-B173-B83CA1A90B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6236268E-31C2-4EA9-B0DD-9ECE4EF5372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>SDS</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BSRS-5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CES-D-13</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -134,7 +130,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>(CBCL)</t>
+    <t>BSRS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人编制，获得了中文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBCL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有翻译过程，但是英文文章，只获得了英文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只获得了英文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人编制，但发在了英文期刊，只获得了英文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国开发的7个红色表示，英文的3个黄色表示，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的是翻译的问卷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无翻译过程，无文化适应过程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有翻译过程，无文化适应过程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有翻译过程，有文化适应过程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,12 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -205,13 +235,39 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -256,12 +318,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -275,33 +337,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -627,269 +699,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>129</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>113</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>65</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>1</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>1</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="26.65" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.149999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.149999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="14.55" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>SUM(A1:A34)</f>
         <v>441</v>
@@ -919,5 +1080,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>